--- a/biology/Zoologie/Charaxes_latona/Charaxes_latona.xlsx
+++ b/biology/Zoologie/Charaxes_latona/Charaxes_latona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes latona est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,14 +523,51 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes latona a été nommé par Butler en 1866[1].
-Sous-espèces
-Charaxes latona latona
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes latona a été nommé par Butler en 1866.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes latona latona
 Charaxes latona artemis Rothschild, 1900;
 Charaxes latona aruanus Butler, 1872;
-Charaxes latona brennus C. et R. Felder, [1867]
+Charaxes latona brennus C. et R. Felder, 
 Charaxes latona diana Rothschild, 1898;
 Charaxes latona gigantea Hagen, 1897;
 Charaxes latona layardi Butler, 1896;
@@ -527,42 +576,7 @@
 Charaxes latona marcia Joicey et Noakes, 1915;
 Charaxes latona meridionalis Rothschild, 1900;
 Charaxes latona papuensis Butler, 1869;
-Charaxes latona stephanus Rothschild, 1900[1].
-Noms vernaculaires
-Il se nomme Danaid Eggfly en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_latona</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_latona</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes latona est un grand papillon orange largement bordé de marron foncé presque noir. Les ailes antérieures concaves ont la moitié basale orange et la moitié distale dont tout l'apex marron foncé. Les ailes postérieures avec deux queues, ont dans une bande marginale marron, une ligne submarginale de petits points blancs. L'ornementation marron est plus ou moins importante suivant les sous-espèces et peut se limiter à une ligne submarginale de taches marron pupillées de blanc aux postérieures
-Le revers est marron clair terne avec des reflets violacés et une ornementation de chevrons limitant des bandes plus ou moins foncées[2].
-</t>
+Charaxes latona stephanus Rothschild, 1900.</t>
         </is>
       </c>
     </row>
@@ -587,13 +601,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Pterocarpus et Cryptocarya triplinervis[1].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Danaid Eggfly en anglais.
 </t>
         </is>
       </c>
@@ -619,17 +638,124 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes latona est un grand papillon orange largement bordé de marron foncé presque noir. Les ailes antérieures concaves ont la moitié basale orange et la moitié distale dont tout l'apex marron foncé. Les ailes postérieures avec deux queues, ont dans une bande marginale marron, une ligne submarginale de petits points blancs. L'ornementation marron est plus ou moins importante suivant les sous-espèces et peut se limiter à une ligne submarginale de taches marron pupillées de blanc aux postérieures
+Le revers est marron clair terne avec des reflets violacés et une ornementation de chevrons limitant des bandes plus ou moins foncées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Pterocarpus et Cryptocarya triplinervis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Australie et dans certaines des iles environnantes dont Aru, Biak, l'archipel Bismarck[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Australie et dans certaines des iles environnantes dont Aru, Biak, l'archipel Bismarck.
 Sur les autres projets Wikimedia :
 Charaxes latona, sur Wikimedia CommonsCharaxes latona, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur Internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_latona</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur Internet.
 </t>
         </is>
       </c>
